--- a/高考全国院校投档线-文件转换_数据清洗/江西/2017/二本文理.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2017/二本文理.xlsx
@@ -2722,8 +2722,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A818" workbookViewId="0">
-      <selection activeCell="I880" sqref="I880"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I449" sqref="I449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2916,7 +2916,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>10143</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>613</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>267</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>10335</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>238</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>32</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>10472</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>612</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>14417</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>365</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>14431</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>182</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>14469</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>398</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>16283</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>495</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>18038</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>331</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>18580</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>538</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>18655</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>394</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>19212</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>396</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>19406</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>370</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>20084</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>325</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>20512</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>494</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>20924</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>456</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>21255</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>460</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>21495</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>397</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>21894</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>387</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>22160</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>466</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>22520</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>335</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>22793</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>372</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>22902</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>389</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>22937</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>444</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>23139</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>395</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>23501</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>364</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>23691</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>611</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>23844</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>173</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>23993</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>459</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>24282</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>333</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>24351</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>596</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>24424</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>390</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>24426</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>617</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>468</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>25188</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>135</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>25215</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>433</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>25338</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>447</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>25421</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>445</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>25865</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>368</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>26090</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>404</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>26144</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>491</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>26276</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>369</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>26343</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>296</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>26586</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>470</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>26653</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>10</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>26778</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>322</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>26832</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>27084</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>486</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>27286</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>361</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>27323</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>378</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>27366</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>465</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>27538</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>301</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>27748</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>190</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>27820</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>326</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>27894</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>428</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>28005</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>455</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>28023</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>457</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>28040</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>382</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>28130</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>533</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>28134</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>87</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>28141</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>401</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>28238</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>507</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>28462</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>171</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>28502</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>136</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>28509</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>386</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>28634</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>614</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>28700</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>488</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>28706</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>597</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>28723</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>212</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>28751</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>131</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>28821</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>384</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>28846</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>325</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>28853</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>324</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>29043</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>371</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>29283</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>431</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>29395</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>336</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>29504</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>448</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>29549</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>337</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>29555</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>162</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>29565</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>508</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>29661</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>608</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>29738</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>133</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>29829</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>328</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>30086</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>130</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>30226</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>340</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>30287</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>134</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>30454</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>300</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>30477</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>328</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>33</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>30524</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>399</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>30593</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>164</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>30663</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>378</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>30703</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>406</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>30844</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>341</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>30855</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>261</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>30856</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>602</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>30919</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>37</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>31259</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>487</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>31315</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>376</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>31434</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>392</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>31439</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>132</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>31657</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>418</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>31666</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>452</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>31715</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>40</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>31808</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>139</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>31883</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>41</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>31979</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>343</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>501</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>32182</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>391</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>32190</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>516</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>32203</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>324</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>32217</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>476</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>32333</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>34</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>32402</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>409</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>32451</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>396</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>32482</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>509</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>32515</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>271</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>32625</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>141</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>32694</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>604</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>32798</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>385</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>32861</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>28</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>32890</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>411</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>32937</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>9</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>32948</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>499</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>33028</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>25</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>33060</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>554</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>33093</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>137</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>33174</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>215</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>33226</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>149</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>33290</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>252</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>33327</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A604" s="1">
         <v>29</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>33452</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
         <v>273</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>33475</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A607" s="1">
         <v>332</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>33525</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A610" s="1">
         <v>636</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>33556</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A612" s="1">
         <v>513</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>33627</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
         <v>359</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>33703</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
         <v>607</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>33871</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
         <v>464</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>33883</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
         <v>47</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>33896</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
         <v>218</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>34013</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A623" s="1">
         <v>159</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>34055</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
         <v>39</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>34056</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
         <v>150</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>34171</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
         <v>158</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>34194</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630" s="1">
         <v>605</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
         <v>194</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
         <v>339</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
         <v>344</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
         <v>347</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
         <v>381</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
         <v>417</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
         <v>421</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
         <v>446</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
         <v>451</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
         <v>475</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
         <v>478</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
         <v>480</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
         <v>481</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
         <v>506</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
         <v>510</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
         <v>512</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
         <v>514</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
         <v>518</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
         <v>600</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>34291</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
         <v>11</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>34349</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
         <v>1</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>34422</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
         <v>156</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>34803</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
         <v>90</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>34922</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
         <v>288</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>34924</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
         <v>305</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>34950</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
         <v>122</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>34952</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
         <v>274</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>34978</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
         <v>194</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>35023</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
         <v>61</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>35073</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
         <v>185</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>35084</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
         <v>365</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>35285</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
         <v>140</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>35291</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
         <v>373</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>35302</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
         <v>17</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>35363</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
         <v>268</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>35364</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A710" s="1">
         <v>207</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>35453</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A711" s="1">
         <v>693</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>35512</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A712" s="1">
         <v>89</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>35558</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A713" s="1">
         <v>106</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>35573</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A714" s="1">
         <v>166</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>35658</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A715" s="1">
         <v>14</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>35674</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A716" s="1">
         <v>251</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>35688</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A717" s="1">
         <v>179</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>35750</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A718" s="1">
         <v>26</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>35917</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A719" s="1">
         <v>66</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>35964</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A720" s="1">
         <v>174</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>36132</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A722" s="1">
         <v>118</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>36336</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A723" s="1">
         <v>163</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>36346</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A724" s="1">
         <v>22</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>36367</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A725" s="1">
         <v>266</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>36405</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A726" s="1">
         <v>27</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>36521</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A727" s="1">
         <v>257</v>
       </c>
@@ -17316,7 +17316,7 @@
         <v>36563</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A730" s="1">
         <v>30</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>36583</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A731" s="1">
         <v>48</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>36621</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A732" s="1">
         <v>302</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A734" s="1">
         <v>102</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>36818</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A735" s="1">
         <v>146</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>36838</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A736" s="1">
         <v>668</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>36972</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A737" s="1">
         <v>290</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>37187</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A738" s="1">
         <v>86</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>37244</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A739" s="1">
         <v>635</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>37359</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A740" s="1">
         <v>225</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>37541</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A742" s="1">
         <v>674</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>37650</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A745" s="1">
         <v>237</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>37714</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A746" s="1">
         <v>222</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>37889</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A747" s="1">
         <v>350</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A749" s="1">
         <v>147</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>37995</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A750" s="1">
         <v>374</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A751" s="1">
         <v>3</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>38091</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A753" s="1">
         <v>677</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>38183</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A754" s="1">
         <v>287</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>38243</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A755" s="1">
         <v>226</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>38319</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A756" s="1">
         <v>276</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>38334</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A757" s="1">
         <v>175</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>38366</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A758" s="1">
         <v>337</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A759" s="1">
         <v>672</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>38473</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A760" s="1">
         <v>100</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>38475</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A761" s="1">
         <v>281</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>38530</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A762" s="1">
         <v>15</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>38636</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A763" s="1">
         <v>294</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A764" s="1">
         <v>375</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A766" s="1">
         <v>186</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>38954</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A767" s="1">
         <v>401</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>39081</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A768" s="1">
         <v>223</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>39095</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A769" s="1">
         <v>377</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>39099</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A770" s="1">
         <v>95</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A771" s="1">
         <v>291</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>39163</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A772" s="1">
         <v>189</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>39269</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A773" s="1">
         <v>169</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>39293</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A774" s="1">
         <v>262</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A775" s="1">
         <v>12</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A776" s="1">
         <v>6</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A777" s="1">
         <v>151</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>39428</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A778" s="1">
         <v>338</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>39488</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A779" s="1">
         <v>19</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>39530</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A780" s="1">
         <v>392</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>39608</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A781" s="1">
         <v>631</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A782" s="1">
         <v>153</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A783" s="1">
         <v>204</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>39804</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A784" s="1">
         <v>626</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>39922</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A785" s="1">
         <v>43</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>40257</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A786" s="1">
         <v>314</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>40501</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A788" s="1">
         <v>306</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>40646</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A790" s="1">
         <v>110</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>40846</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A791" s="1">
         <v>327</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>40958</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A792" s="1">
         <v>107</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A793" s="1">
         <v>205</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>41143</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A794" s="1">
         <v>98</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>41201</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A795" s="1">
         <v>340</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>41295</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A796" s="1">
         <v>364</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>41546</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A797" s="1">
         <v>330</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A798" s="1">
         <v>49</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A799" s="1">
         <v>62</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A800" s="1">
         <v>87</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>42048</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A801" s="1">
         <v>209</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>42127</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A804" s="1">
         <v>16</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>42342</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A805" s="1">
         <v>652</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A806" s="1">
         <v>93</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A807" s="1">
         <v>275</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A808" s="1">
         <v>96</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A809" s="1">
         <v>670</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A811" s="1">
         <v>733</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A812" s="1">
         <v>182</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>42943</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A813" s="1">
         <v>255</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>43037</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A814" s="1">
         <v>178</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A815" s="1">
         <v>142</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A817" s="1">
         <v>208</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A819" s="1">
         <v>148</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A820" s="1">
         <v>696</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A821" s="1">
         <v>161</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A822" s="1">
         <v>191</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A823" s="1">
         <v>238</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A824" s="1">
         <v>304</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A825" s="1">
         <v>13</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A827" s="1">
         <v>155</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A829" s="1">
         <v>642</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A830" s="1">
         <v>263</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A831" s="1">
         <v>188</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A832" s="1">
         <v>88</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A834" s="1">
         <v>165</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A835" s="1">
         <v>51</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>45633</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A836" s="1">
         <v>285</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A837" s="1">
         <v>732</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A838" s="1">
         <v>92</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A839" s="1">
         <v>694</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A840" s="1">
         <v>224</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>46056</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A841" s="1">
         <v>381</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>46416</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A842" s="1">
         <v>360</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>46768</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A843" s="1">
         <v>108</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>46880</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A844" s="1">
         <v>671</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>46943</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A845" s="1">
         <v>228</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>47307</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A846" s="1">
         <v>313</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>47403</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A848" s="1">
         <v>200</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>47514</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A849" s="1">
         <v>258</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>47688</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A850" s="1">
         <v>112</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>47713</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A851" s="1">
         <v>673</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>47750</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A852" s="1">
         <v>675</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>47780</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A853" s="1">
         <v>203</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>47865</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A854" s="1">
         <v>380</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>47921</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A855" s="1">
         <v>198</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>48236</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A857" s="1">
         <v>303</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>48358</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A859" s="1">
         <v>298</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>48530</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A860" s="1">
         <v>272</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>48650</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A861" s="1">
         <v>42</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>48655</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A862" s="1">
         <v>368</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>48678</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A863" s="1">
         <v>667</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>48710</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A864" s="1">
         <v>676</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>48715</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A865" s="1">
         <v>335</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>48768</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A867" s="1">
         <v>91</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A868" s="1">
         <v>145</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>48900</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A869" s="1">
         <v>177</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>49150</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A870" s="1">
         <v>295</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>49187</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A871" s="1">
         <v>450</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>49243</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A872" s="1">
         <v>157</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>49368</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A873" s="1">
         <v>167</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>49382</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A874" s="1">
         <v>197</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>49584</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A876" s="1">
         <v>495</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>49674</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A877" s="1">
         <v>362</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>49749</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A878" s="1">
         <v>683</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>49974</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A881" s="1">
         <v>120</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>50138</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A882" s="1">
         <v>18</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>50335</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A883" s="1">
         <v>691</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>50451</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A884" s="1">
         <v>52</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>50757</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A885" s="1">
         <v>638</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>50831</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A886" s="1">
         <v>326</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>51009</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A887" s="1">
         <v>247</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>51191</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A888" s="1">
         <v>629</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>51495</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A889" s="1">
         <v>85</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>51511</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A890" s="1">
         <v>36</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>51869</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A893" s="1">
         <v>57</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>52147</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A895" s="1">
         <v>248</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>52195</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A896" s="1">
         <v>599</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>52406</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A897" s="1">
         <v>8</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>52433</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A898" s="1">
         <v>259</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>52679</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A899" s="1">
         <v>119</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>53199</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A900" s="1">
         <v>643</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>53233</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A901" s="1">
         <v>682</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>53536</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A902" s="1">
         <v>7</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>53597</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A903" s="1">
         <v>46</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>53620</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A904" s="1">
         <v>170</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>53775</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A905" s="1">
         <v>270</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>54083</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A906" s="1">
         <v>385</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>54360</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A908" s="1">
         <v>64</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>54403</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A909" s="1">
         <v>399</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>54515</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A910" s="1">
         <v>269</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>54671</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A912" s="1">
         <v>688</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>54672</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A913" s="1">
         <v>502</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>54676</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A914" s="1">
         <v>292</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>54680</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A915" s="1">
         <v>402</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>54764</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A916" s="1">
         <v>331</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>54790</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A917" s="1">
         <v>35</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>54862</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A918" s="1">
         <v>669</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>55350</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A920" s="1">
         <v>372</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>55389</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A921" s="1">
         <v>697</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>55584</v>
       </c>
     </row>
-    <row r="923" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A923" s="1">
         <v>344</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>55652</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A924" s="1">
         <v>709</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>55776</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A925" s="1">
         <v>172</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>55794</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A926" s="1">
         <v>138</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>55821</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A927" s="1">
         <v>491</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>56110</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A928" s="1">
         <v>639</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>56183</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A929" s="1">
         <v>103</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>56271</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A931" s="1">
         <v>370</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>56317</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A932" s="1">
         <v>4</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>56872</v>
       </c>
     </row>
-    <row r="934" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A934" s="1">
         <v>249</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>56940</v>
       </c>
     </row>
-    <row r="936" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A936" s="1">
         <v>686</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>56951</v>
       </c>
     </row>
-    <row r="937" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A937" s="1">
         <v>111</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>57114</v>
       </c>
     </row>
-    <row r="938" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A938" s="1">
         <v>242</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>57331</v>
       </c>
     </row>
-    <row r="939" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A939" s="1">
         <v>501</v>
       </c>
@@ -21516,7 +21516,7 @@
         <v>57332</v>
       </c>
     </row>
-    <row r="940" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A940" s="1">
         <v>278</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>57352</v>
       </c>
     </row>
-    <row r="941" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A941" s="1">
         <v>193</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>57538</v>
       </c>
     </row>
-    <row r="942" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A942" s="1">
         <v>692</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>57834</v>
       </c>
     </row>
-    <row r="943" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A943" s="1">
         <v>404</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>57839</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A944" s="1">
         <v>31</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>57907</v>
       </c>
     </row>
-    <row r="945" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A945" s="1">
         <v>282</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>57917</v>
       </c>
     </row>
-    <row r="946" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A946" s="1">
         <v>109</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>58010</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A947" s="1">
         <v>695</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>58059</v>
       </c>
     </row>
-    <row r="948" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A948" s="1">
         <v>229</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>58458</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A950" s="1">
         <v>734</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>58516</v>
       </c>
     </row>
-    <row r="951" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A951" s="1">
         <v>280</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>58740</v>
       </c>
     </row>
-    <row r="952" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A952" s="1">
         <v>329</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>59279</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A954" s="1">
         <v>679</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>59312</v>
       </c>
     </row>
-    <row r="955" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A955" s="1">
         <v>311</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>59378</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A956" s="1">
         <v>321</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>59442</v>
       </c>
     </row>
-    <row r="957" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A957" s="1">
         <v>708</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>59454</v>
       </c>
     </row>
-    <row r="958" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A958" s="1">
         <v>471</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>59569</v>
       </c>
     </row>
-    <row r="959" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A959" s="1">
         <v>195</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>59670</v>
       </c>
     </row>
-    <row r="960" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A960" s="1">
         <v>289</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>59677</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A961" s="1">
         <v>144</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>59778</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A962" s="1">
         <v>265</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>59798</v>
       </c>
     </row>
-    <row r="963" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A963" s="1">
         <v>79</v>
       </c>
@@ -21996,7 +21996,7 @@
         <v>60027</v>
       </c>
     </row>
-    <row r="964" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A964" s="1">
         <v>184</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>60138</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A965" s="1">
         <v>410</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>60370</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A966" s="1">
         <v>63</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>60424</v>
       </c>
     </row>
-    <row r="967" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A967" s="1">
         <v>598</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>60837</v>
       </c>
     </row>
-    <row r="968" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A968" s="1">
         <v>628</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>61629</v>
       </c>
     </row>
-    <row r="969" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A969" s="1">
         <v>687</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>61688</v>
       </c>
     </row>
-    <row r="970" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A970" s="1">
         <v>566</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>61696</v>
       </c>
     </row>
-    <row r="972" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A972" s="1">
         <v>356</v>
       </c>
@@ -22176,7 +22176,7 @@
         <v>61730</v>
       </c>
     </row>
-    <row r="973" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A973" s="1">
         <v>125</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>61819</v>
       </c>
     </row>
-    <row r="974" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A974" s="1">
         <v>563</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>61869</v>
       </c>
     </row>
-    <row r="975" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A975" s="1">
         <v>416</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>61980</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A976" s="1">
         <v>239</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>62012</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A977" s="1">
         <v>123</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>62376</v>
       </c>
     </row>
-    <row r="980" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A980" s="1">
         <v>461</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>62381</v>
       </c>
     </row>
-    <row r="981" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A981" s="1">
         <v>202</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>62382</v>
       </c>
     </row>
-    <row r="982" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A982" s="1">
         <v>65</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>62427</v>
       </c>
     </row>
-    <row r="983" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A983" s="1">
         <v>277</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>62501</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A984" s="1">
         <v>444</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v>62567</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A985" s="1">
         <v>571</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>62572</v>
       </c>
     </row>
-    <row r="986" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A986" s="1">
         <v>678</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>62576</v>
       </c>
     </row>
-    <row r="987" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A987" s="1">
         <v>339</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>62653</v>
       </c>
     </row>
-    <row r="988" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A988" s="1">
         <v>710</v>
       </c>
@@ -22496,7 +22496,7 @@
         <v>62746</v>
       </c>
     </row>
-    <row r="989" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A989" s="1">
         <v>483</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>62762</v>
       </c>
     </row>
-    <row r="990" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A990" s="1">
         <v>219</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>62840</v>
       </c>
     </row>
-    <row r="991" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A991" s="1">
         <v>493</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>62907</v>
       </c>
     </row>
-    <row r="992" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A992" s="1">
         <v>279</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>62980</v>
       </c>
     </row>
-    <row r="993" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A993" s="1">
         <v>217</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>63037</v>
       </c>
     </row>
-    <row r="994" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A994" s="1">
         <v>453</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>63043</v>
       </c>
     </row>
-    <row r="995" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A995" s="1">
         <v>524</v>
       </c>
@@ -22636,7 +22636,7 @@
         <v>63172</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A996" s="1">
         <v>573</v>
       </c>
@@ -22656,7 +22656,7 @@
         <v>63189</v>
       </c>
     </row>
-    <row r="997" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A997" s="1">
         <v>403</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>63224</v>
       </c>
     </row>
-    <row r="998" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A998" s="1">
         <v>565</v>
       </c>
@@ -22696,7 +22696,7 @@
         <v>63226</v>
       </c>
     </row>
-    <row r="999" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A999" s="1">
         <v>284</v>
       </c>
@@ -22716,7 +22716,7 @@
         <v>63323</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1000" s="1">
         <v>221</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>63379</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1001" s="1">
         <v>494</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>63518</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1002" s="1">
         <v>712</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>63552</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1003" s="1">
         <v>58</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>63573</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1004" s="1">
         <v>206</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>64054</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1005" s="1">
         <v>293</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>64169</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1006" s="1">
         <v>574</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>64249</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1008" s="1">
         <v>684</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>64317</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1009" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1009" s="1">
         <v>113</v>
       </c>
@@ -22916,7 +22916,7 @@
         <v>64382</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1010" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1010" s="1">
         <v>715</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>64442</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1011" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1011" s="1">
         <v>117</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>64479</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1012" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1012" s="1">
         <v>297</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>64493</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1013" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1013" s="1">
         <v>80</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>64557</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1014" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1014" s="1">
         <v>176</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>64558</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1015" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1015" s="1">
         <v>235</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>64702</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1016" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1016" s="1">
         <v>363</v>
       </c>
@@ -23056,7 +23056,7 @@
         <v>64744</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1017" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1017" s="1">
         <v>78</v>
       </c>
@@ -23076,7 +23076,7 @@
         <v>64758</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1018" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1018" s="1">
         <v>256</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>64808</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1019" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1019" s="1">
         <v>569</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>64908</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1020" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1020" s="1">
         <v>492</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>64986</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1021" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1021" s="1">
         <v>336</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>65111</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1022" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1022" s="1">
         <v>481</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>65314</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1023" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1023" s="1">
         <v>44</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>65387</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1024" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1024" s="1">
         <v>455</v>
       </c>
@@ -23216,7 +23216,7 @@
         <v>65448</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1025" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1025" s="1">
         <v>393</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>65602</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1026" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1026" s="1">
         <v>538</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>65616</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1027" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1027" s="1">
         <v>541</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>65657</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1028" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1028" s="1">
         <v>115</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>65696</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1029" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1029" s="1">
         <v>711</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>65840</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1030" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1030" s="1">
         <v>632</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>65926</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1031" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1031" s="1">
         <v>650</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>65944</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1032" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1032" s="1">
         <v>121</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>65947</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1033" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1033" s="1">
         <v>438</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>65969</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1034" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1034" s="1">
         <v>214</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>66010</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1035" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1035" s="1">
         <v>528</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>66085</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1036" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1036" s="1">
         <v>577</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>66347</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1037" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1037" s="1">
         <v>21</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>66353</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1038" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1038" s="1">
         <v>744</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>66488</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1039" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1039" s="1">
         <v>685</v>
       </c>
@@ -23516,7 +23516,7 @@
         <v>66699</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1040" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1040" s="1">
         <v>20</v>
       </c>
@@ -23536,7 +23536,7 @@
         <v>66733</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1041" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1041" s="1">
         <v>570</v>
       </c>
@@ -23556,7 +23556,7 @@
         <v>66739</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1042" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1042" s="1">
         <v>424</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>66781</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1043" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1043" s="1">
         <v>72</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>66788</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1044" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1044" s="1">
         <v>264</v>
       </c>
@@ -23616,7 +23616,7 @@
         <v>66867</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1045" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1045" s="1">
         <v>523</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>66979</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1047" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1047" s="1">
         <v>655</v>
       </c>
@@ -23676,7 +23676,7 @@
         <v>67065</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1048" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1048" s="1">
         <v>5</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>67074</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1049" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1049" s="1">
         <v>234</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>67078</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1050" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1050" s="1">
         <v>544</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>67238</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1051" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1051" s="1">
         <v>414</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>67343</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1053" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1053" s="1">
         <v>713</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>67369</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1054" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1054" s="1">
         <v>334</v>
       </c>
@@ -23816,7 +23816,7 @@
         <v>67492</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1055" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1055" s="1">
         <v>534</v>
       </c>
@@ -23836,7 +23836,7 @@
         <v>67634</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1056" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1056" s="1">
         <v>548</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>67742</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1057" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1057" s="1">
         <v>382</v>
       </c>
@@ -23876,7 +23876,7 @@
         <v>67758</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1058" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1058" s="1">
         <v>542</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>67810</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1059" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1059" s="1">
         <v>522</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>67824</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1060" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1060" s="1">
         <v>236</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>67843</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1062" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1062" s="1">
         <v>731</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>67929</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1064" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1064" s="1">
         <v>698</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>67940</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1065" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1065" s="1">
         <v>317</v>
       </c>
@@ -24036,7 +24036,7 @@
         <v>67963</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1066" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1066" s="1">
         <v>233</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>68069</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1067" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1067" s="1">
         <v>126</v>
       </c>
@@ -24076,7 +24076,7 @@
         <v>68077</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1068" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1068" s="1">
         <v>199</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>68170</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1070" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1070" s="1">
         <v>2</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>68253</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1072" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1072" s="1">
         <v>451</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>68299</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1073" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1073" s="1">
         <v>243</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>68411</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1074" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1074" s="1">
         <v>562</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>68432</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1075" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1075" s="1">
         <v>246</v>
       </c>
@@ -24236,7 +24236,7 @@
         <v>68475</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1076" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1076" s="1">
         <v>241</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>68496</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1077" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1077" s="1">
         <v>387</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>68529</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1078" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1078" s="1">
         <v>76</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>68649</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1079" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1079" s="1">
         <v>595</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>68731</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1080" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1080" s="1">
         <v>587</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>68988</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1082" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1082" s="1">
         <v>74</v>
       </c>
@@ -24396,7 +24396,7 @@
         <v>69097</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1084" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1084" s="1">
         <v>84</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>69158</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1085" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1085" s="1">
         <v>700</v>
       </c>
@@ -24436,7 +24436,7 @@
         <v>69280</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1086" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1086" s="1">
         <v>286</v>
       </c>
@@ -24456,7 +24456,7 @@
         <v>69388</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1087" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1087" s="1">
         <v>484</v>
       </c>
@@ -24476,7 +24476,7 @@
         <v>69408</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1088" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1088" s="1">
         <v>417</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>69467</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1089" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1089" s="1">
         <v>50</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>69469</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1090" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1090" s="1">
         <v>647</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>69562</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1091" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1091" s="1">
         <v>45</v>
       </c>
@@ -24556,7 +24556,7 @@
         <v>69636</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1092" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1092" s="1">
         <v>99</v>
       </c>
@@ -24576,7 +24576,7 @@
         <v>69758</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1093" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1093" s="1">
         <v>561</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>69860</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1094" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1094" s="1">
         <v>427</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>69922</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1096" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1096" s="1">
         <v>457</v>
       </c>
@@ -24656,7 +24656,7 @@
         <v>70103</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1097" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1097" s="1">
         <v>81</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>70160</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1098" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1098" s="1">
         <v>351</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>70184</v>
       </c>
     </row>
-    <row r="1099" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1099" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1099" s="1">
         <v>406</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>70250</v>
       </c>
     </row>
-    <row r="1100" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1100" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1100" s="1">
         <v>549</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>70272</v>
       </c>
     </row>
-    <row r="1101" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1101" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1101" s="1">
         <v>116</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>70281</v>
       </c>
     </row>
-    <row r="1102" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1102" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1102" s="1">
         <v>452</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>70285</v>
       </c>
     </row>
-    <row r="1103" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1103" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1103" s="1">
         <v>346</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>70472</v>
       </c>
     </row>
-    <row r="1104" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1104" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1104" s="1">
         <v>425</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>70586</v>
       </c>
     </row>
-    <row r="1105" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1105" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1105" s="1">
         <v>506</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>70709</v>
       </c>
     </row>
-    <row r="1106" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1106" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1106" s="1">
         <v>232</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>70865</v>
       </c>
     </row>
-    <row r="1107" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1107" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1107" s="1">
         <v>701</v>
       </c>
@@ -24876,7 +24876,7 @@
         <v>70881</v>
       </c>
     </row>
-    <row r="1108" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1108" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1108" s="1">
         <v>366</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>71004</v>
       </c>
     </row>
-    <row r="1109" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1109" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1109" s="1">
         <v>54</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>71035</v>
       </c>
     </row>
-    <row r="1110" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1110" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1110" s="1">
         <v>419</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>71082</v>
       </c>
     </row>
-    <row r="1111" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1111" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1111" s="1">
         <v>369</v>
       </c>
@@ -24956,7 +24956,7 @@
         <v>71104</v>
       </c>
     </row>
-    <row r="1112" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1112" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1112" s="1">
         <v>240</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>71208</v>
       </c>
     </row>
-    <row r="1113" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1113" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1113" s="1">
         <v>318</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>71231</v>
       </c>
     </row>
-    <row r="1114" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1114" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1114" s="1">
         <v>454</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>71279</v>
       </c>
     </row>
-    <row r="1115" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1115" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1115" s="1">
         <v>56</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>71299</v>
       </c>
     </row>
-    <row r="1116" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1116" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1116" s="1">
         <v>601</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>71330</v>
       </c>
     </row>
-    <row r="1117" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1117" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1117" s="1">
         <v>474</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>71361</v>
       </c>
     </row>
-    <row r="1118" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1118" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1118" s="1">
         <v>367</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>71407</v>
       </c>
     </row>
-    <row r="1120" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1120" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1120" s="1">
         <v>716</v>
       </c>
@@ -25136,7 +25136,7 @@
         <v>71575</v>
       </c>
     </row>
-    <row r="1121" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1121" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1121" s="1">
         <v>748</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>71583</v>
       </c>
     </row>
-    <row r="1122" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1122" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1122" s="1">
         <v>641</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>71677</v>
       </c>
     </row>
-    <row r="1123" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1123" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1123" s="1">
         <v>600</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>71695</v>
       </c>
     </row>
-    <row r="1124" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1124" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1124" s="1">
         <v>201</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>71883</v>
       </c>
     </row>
-    <row r="1125" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1125" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1125" s="1">
         <v>550</v>
       </c>
@@ -25236,7 +25236,7 @@
         <v>71896</v>
       </c>
     </row>
-    <row r="1126" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1126" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1126" s="1">
         <v>646</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>72027</v>
       </c>
     </row>
-    <row r="1127" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1127" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1127" s="1">
         <v>386</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>72062</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1128" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1128" s="1">
         <v>152</v>
       </c>
@@ -25296,7 +25296,7 @@
         <v>72090</v>
       </c>
     </row>
-    <row r="1129" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1129" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1129" s="1">
         <v>602</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>72201</v>
       </c>
     </row>
-    <row r="1130" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1130" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1130" s="1">
         <v>479</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>72288</v>
       </c>
     </row>
-    <row r="1131" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1131" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1131" s="1">
         <v>75</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>72400</v>
       </c>
     </row>
-    <row r="1132" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1132" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1132" s="1">
         <v>467</v>
       </c>
@@ -25376,7 +25376,7 @@
         <v>72406</v>
       </c>
     </row>
-    <row r="1133" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1133" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1133" s="1">
         <v>73</v>
       </c>
@@ -25396,7 +25396,7 @@
         <v>72482</v>
       </c>
     </row>
-    <row r="1134" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1134" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1134" s="1">
         <v>391</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>72572</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1135" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1135" s="1">
         <v>315</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>72697</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1136" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1136" s="1">
         <v>459</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>72743</v>
       </c>
     </row>
-    <row r="1137" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1137" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1137" s="1">
         <v>736</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>72762</v>
       </c>
     </row>
-    <row r="1138" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1138" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1138" s="1">
         <v>128</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>72785</v>
       </c>
     </row>
-    <row r="1139" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1139" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1139" s="1">
         <v>485</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>72794</v>
       </c>
     </row>
-    <row r="1140" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1140" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1140" s="1">
         <v>244</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>72832</v>
       </c>
     </row>
-    <row r="1141" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1141" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1141" s="1">
         <v>564</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>72849</v>
       </c>
     </row>
-    <row r="1142" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1142" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1142" s="1">
         <v>596</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>72950</v>
       </c>
     </row>
-    <row r="1143" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1143" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1143" s="1">
         <v>352</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>73029</v>
       </c>
     </row>
-    <row r="1144" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1144" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1144" s="1">
         <v>558</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>73108</v>
       </c>
     </row>
-    <row r="1145" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1145" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1145" s="1">
         <v>568</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>73126</v>
       </c>
     </row>
-    <row r="1146" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1146" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1146" s="1">
         <v>737</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>73138</v>
       </c>
     </row>
-    <row r="1147" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1147" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1147" s="1">
         <v>395</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>73185</v>
       </c>
     </row>
-    <row r="1148" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1148" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1148" s="1">
         <v>662</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>73218</v>
       </c>
     </row>
-    <row r="1149" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1149" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1149" s="1">
         <v>412</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>73291</v>
       </c>
     </row>
-    <row r="1150" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1150" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1150" s="1">
         <v>319</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>73306</v>
       </c>
     </row>
-    <row r="1151" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1151" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1151" s="1">
         <v>384</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>73336</v>
       </c>
     </row>
-    <row r="1152" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1152" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1152" s="1">
         <v>589</v>
       </c>
@@ -25776,7 +25776,7 @@
         <v>73366</v>
       </c>
     </row>
-    <row r="1153" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1153" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1153" s="1">
         <v>341</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>73398</v>
       </c>
     </row>
-    <row r="1154" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1154" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1154" s="1">
         <v>591</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>73399</v>
       </c>
     </row>
-    <row r="1155" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1155" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1155" s="1">
         <v>739</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>73495</v>
       </c>
     </row>
-    <row r="1156" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1156" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1156" s="1">
         <v>60</v>
       </c>
@@ -25856,7 +25856,7 @@
         <v>73527</v>
       </c>
     </row>
-    <row r="1157" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1157" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1157" s="1">
         <v>216</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>73560</v>
       </c>
     </row>
-    <row r="1158" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1158" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1158" s="1">
         <v>389</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>73626</v>
       </c>
     </row>
-    <row r="1159" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1159" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1159" s="1">
         <v>560</v>
       </c>
@@ -25916,7 +25916,7 @@
         <v>73686</v>
       </c>
     </row>
-    <row r="1160" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1160" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1160" s="1">
         <v>316</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>73872</v>
       </c>
     </row>
-    <row r="1161" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1161" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1161" s="1">
         <v>747</v>
       </c>
@@ -25956,7 +25956,7 @@
         <v>73912</v>
       </c>
     </row>
-    <row r="1162" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1162" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1162" s="1">
         <v>400</v>
       </c>
@@ -25976,7 +25976,7 @@
         <v>73995</v>
       </c>
     </row>
-    <row r="1163" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1163" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1163" s="1">
         <v>702</v>
       </c>
@@ -25996,7 +25996,7 @@
         <v>74028</v>
       </c>
     </row>
-    <row r="1164" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1164" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1164" s="1">
         <v>421</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>74068</v>
       </c>
     </row>
-    <row r="1165" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1165" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1165" s="1">
         <v>409</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>74139</v>
       </c>
     </row>
-    <row r="1166" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1166" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1166" s="1">
         <v>105</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>74182</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1167" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1167" s="1">
         <v>411</v>
       </c>
@@ -26076,7 +26076,7 @@
         <v>74186</v>
       </c>
     </row>
-    <row r="1168" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1168" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1168" s="1">
         <v>408</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>74213</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1169" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1169" s="1">
         <v>526</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>74365</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1170" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1170" s="1">
         <v>460</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>74367</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1171" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1171" s="1">
         <v>645</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>74383</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1172" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1172" s="1">
         <v>70</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>74478</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1173" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1173" s="1">
         <v>463</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>74685</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1174" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1174" s="1">
         <v>503</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>74746</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1176" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1176" s="1">
         <v>592</v>
       </c>
@@ -26256,7 +26256,7 @@
         <v>74783</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1177" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1177" s="1">
         <v>738</v>
       </c>
@@ -26276,7 +26276,7 @@
         <v>74848</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1178" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1178" s="1">
         <v>353</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>74953</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1179" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1179" s="1">
         <v>496</v>
       </c>
@@ -26316,7 +26316,7 @@
         <v>75343</v>
       </c>
     </row>
-    <row r="1180" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1180" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1180" s="1">
         <v>83</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>75355</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1181" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1181" s="1">
         <v>657</v>
       </c>
@@ -26356,7 +26356,7 @@
         <v>75366</v>
       </c>
     </row>
-    <row r="1182" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1182" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1182" s="1">
         <v>545</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>75417</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1183" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1183" s="1">
         <v>497</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>75436</v>
       </c>
     </row>
-    <row r="1185" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1185" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1185" s="1">
         <v>741</v>
       </c>
@@ -26436,7 +26436,7 @@
         <v>75471</v>
       </c>
     </row>
-    <row r="1186" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1186" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1186" s="1">
         <v>407</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>75598</v>
       </c>
     </row>
-    <row r="1187" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1187" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1187" s="1">
         <v>357</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>75696</v>
       </c>
     </row>
-    <row r="1188" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1188" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1188" s="1">
         <v>482</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>75791</v>
       </c>
     </row>
-    <row r="1189" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1189" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1189" s="1">
         <v>465</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>75896</v>
       </c>
     </row>
-    <row r="1190" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1190" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1190" s="1">
         <v>154</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>76020</v>
       </c>
     </row>
-    <row r="1191" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1191" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1191" s="1">
         <v>554</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>76241</v>
       </c>
     </row>
-    <row r="1192" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1192" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1192" s="1">
         <v>627</v>
       </c>
@@ -26576,7 +26576,7 @@
         <v>76254</v>
       </c>
     </row>
-    <row r="1193" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1193" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1193" s="1">
         <v>462</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>76261</v>
       </c>
     </row>
-    <row r="1194" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1194" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1194" s="1">
         <v>499</v>
       </c>
@@ -26616,7 +26616,7 @@
         <v>76380</v>
       </c>
     </row>
-    <row r="1195" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1195" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1195" s="1">
         <v>504</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>76385</v>
       </c>
     </row>
-    <row r="1196" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1196" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1196" s="1">
         <v>473</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>76407</v>
       </c>
     </row>
-    <row r="1197" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1197" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1197" s="1">
         <v>575</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>76499</v>
       </c>
     </row>
-    <row r="1198" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1198" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1198" s="1">
         <v>536</v>
       </c>
@@ -26696,7 +26696,7 @@
         <v>76539</v>
       </c>
     </row>
-    <row r="1199" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1199" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1199" s="1">
         <v>527</v>
       </c>
@@ -26716,7 +26716,7 @@
         <v>76618</v>
       </c>
     </row>
-    <row r="1200" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1200" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1200" s="1">
         <v>519</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>76659</v>
       </c>
     </row>
-    <row r="1201" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1201" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1201" s="1">
         <v>593</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>76855</v>
       </c>
     </row>
-    <row r="1202" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1202" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1202" s="1">
         <v>537</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>77131</v>
       </c>
     </row>
-    <row r="1203" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1203" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1203" s="1">
         <v>539</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>77301</v>
       </c>
     </row>
-    <row r="1204" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1204" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1204" s="1">
         <v>735</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>77381</v>
       </c>
     </row>
-    <row r="1205" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1205" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1205" s="1">
         <v>529</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>77391</v>
       </c>
     </row>
-    <row r="1206" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1206" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1206" s="1">
         <v>423</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>77405</v>
       </c>
     </row>
-    <row r="1207" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1207" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1207" s="1">
         <v>530</v>
       </c>
@@ -26876,7 +26876,7 @@
         <v>77468</v>
       </c>
     </row>
-    <row r="1208" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1208" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1208" s="1">
         <v>699</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>77576</v>
       </c>
     </row>
-    <row r="1209" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1209" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1209" s="1">
         <v>355</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>77681</v>
       </c>
     </row>
-    <row r="1211" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1211" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1211" s="1">
         <v>413</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>77704</v>
       </c>
     </row>
-    <row r="1212" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1212" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1212" s="1">
         <v>312</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v>77807</v>
       </c>
     </row>
-    <row r="1213" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1213" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1213" s="1">
         <v>434</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>77889</v>
       </c>
     </row>
-    <row r="1214" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1214" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1214" s="1">
         <v>557</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>77943</v>
       </c>
     </row>
-    <row r="1215" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1215" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1215" s="1">
         <v>661</v>
       </c>
@@ -27036,7 +27036,7 @@
         <v>78026</v>
       </c>
     </row>
-    <row r="1216" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1216" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1216" s="1">
         <v>552</v>
       </c>
@@ -27056,7 +27056,7 @@
         <v>78103</v>
       </c>
     </row>
-    <row r="1217" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1217" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1217" s="1">
         <v>490</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>78115</v>
       </c>
     </row>
-    <row r="1218" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1218" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1218" s="1">
         <v>620</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>78323</v>
       </c>
     </row>
-    <row r="1219" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1219" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1219" s="1">
         <v>394</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>78514</v>
       </c>
     </row>
-    <row r="1220" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1220" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1220" s="1">
         <v>588</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>78685</v>
       </c>
     </row>
-    <row r="1222" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1222" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1222" s="1">
         <v>398</v>
       </c>
@@ -27176,7 +27176,7 @@
         <v>78697</v>
       </c>
     </row>
-    <row r="1223" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1223" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1223" s="1">
         <v>553</v>
       </c>
@@ -27196,7 +27196,7 @@
         <v>78745</v>
       </c>
     </row>
-    <row r="1224" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1224" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1224" s="1">
         <v>618</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>78869</v>
       </c>
     </row>
-    <row r="1225" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1225" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1225" s="1">
         <v>586</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>79102</v>
       </c>
     </row>
-    <row r="1226" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1226" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1226" s="1">
         <v>576</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>79152</v>
       </c>
     </row>
-    <row r="1227" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1227" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1227" s="1">
         <v>475</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>79262</v>
       </c>
     </row>
-    <row r="1228" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1228" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1228" s="1">
         <v>540</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>79266</v>
       </c>
     </row>
-    <row r="1229" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1229" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1229" s="1">
         <v>420</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>79451</v>
       </c>
     </row>
-    <row r="1230" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1230" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1230" s="1">
         <v>665</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>79736</v>
       </c>
     </row>
-    <row r="1231" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1231" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1231" s="1">
         <v>508</v>
       </c>
@@ -27356,7 +27356,7 @@
         <v>79893</v>
       </c>
     </row>
-    <row r="1232" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1232" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1232" s="1">
         <v>666</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>80271</v>
       </c>
     </row>
-    <row r="1233" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1233" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1233" s="1">
         <v>433</v>
       </c>
@@ -27396,7 +27396,7 @@
         <v>80566</v>
       </c>
     </row>
-    <row r="1234" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1234" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1234" s="1">
         <v>615</v>
       </c>
@@ -27416,7 +27416,7 @@
         <v>80627</v>
       </c>
     </row>
-    <row r="1235" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1235" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1235" s="1">
         <v>721</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>80629</v>
       </c>
     </row>
-    <row r="1236" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1236" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1236" s="1">
         <v>660</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>80701</v>
       </c>
     </row>
-    <row r="1237" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1237" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1237" s="1">
         <v>594</v>
       </c>
@@ -27476,7 +27476,7 @@
         <v>80734</v>
       </c>
     </row>
-    <row r="1238" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1238" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1238" s="1">
         <v>745</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>80789</v>
       </c>
     </row>
-    <row r="1239" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1239" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1239" s="1">
         <v>466</v>
       </c>
@@ -27516,7 +27516,7 @@
         <v>81028</v>
       </c>
     </row>
-    <row r="1240" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1240" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1240" s="1">
         <v>525</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>81097</v>
       </c>
     </row>
-    <row r="1241" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1241" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1241" s="1">
         <v>610</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>81125</v>
       </c>
     </row>
-    <row r="1242" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1242" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1242" s="1">
         <v>254</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>81135</v>
       </c>
     </row>
-    <row r="1243" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1243" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1243" s="1">
         <v>590</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>81270</v>
       </c>
     </row>
-    <row r="1244" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1244" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1244" s="1">
         <v>437</v>
       </c>
@@ -27616,7 +27616,7 @@
         <v>81412</v>
       </c>
     </row>
-    <row r="1245" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1245" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1245" s="1">
         <v>728</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>81435</v>
       </c>
     </row>
-    <row r="1246" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1246" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1246" s="1">
         <v>567</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>81439</v>
       </c>
     </row>
-    <row r="1247" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1247" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1247" s="1">
         <v>458</v>
       </c>
@@ -27676,7 +27676,7 @@
         <v>81732</v>
       </c>
     </row>
-    <row r="1248" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1248" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1248" s="1">
         <v>729</v>
       </c>
@@ -27696,7 +27696,7 @@
         <v>81863</v>
       </c>
     </row>
-    <row r="1249" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1249" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1249" s="1">
         <v>468</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>82010</v>
       </c>
     </row>
-    <row r="1250" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1250" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1250" s="1">
         <v>555</v>
       </c>
@@ -27736,7 +27736,7 @@
         <v>82014</v>
       </c>
     </row>
-    <row r="1251" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1251" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1251" s="1">
         <v>32</v>
       </c>
@@ -27756,7 +27756,7 @@
         <v>82049</v>
       </c>
     </row>
-    <row r="1252" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1252" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1252" s="1">
         <v>617</v>
       </c>
@@ -27776,7 +27776,7 @@
         <v>82058</v>
       </c>
     </row>
-    <row r="1253" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1253" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1253" s="1">
         <v>447</v>
       </c>
@@ -27796,7 +27796,7 @@
         <v>82121</v>
       </c>
     </row>
-    <row r="1254" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1254" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1254" s="1">
         <v>470</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>82166</v>
       </c>
     </row>
-    <row r="1255" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1255" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1255" s="1">
         <v>388</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>82338</v>
       </c>
     </row>
-    <row r="1256" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1256" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1256" s="1">
         <v>520</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>82624</v>
       </c>
     </row>
-    <row r="1257" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1257" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1257" s="1">
         <v>532</v>
       </c>
@@ -27876,7 +27876,7 @@
         <v>83007</v>
       </c>
     </row>
-    <row r="1258" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1258" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1258" s="1">
         <v>605</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>83073</v>
       </c>
     </row>
-    <row r="1259" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1259" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1259" s="1">
         <v>717</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>83136</v>
       </c>
     </row>
-    <row r="1260" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1260" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1260" s="1">
         <v>500</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>83239</v>
       </c>
     </row>
-    <row r="1261" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1261" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1261" s="1">
         <v>480</v>
       </c>
@@ -27956,7 +27956,7 @@
         <v>83265</v>
       </c>
     </row>
-    <row r="1262" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1262" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1262" s="1">
         <v>556</v>
       </c>
@@ -27976,7 +27976,7 @@
         <v>83301</v>
       </c>
     </row>
-    <row r="1263" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1263" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1263" s="1">
         <v>742</v>
       </c>
@@ -27996,7 +27996,7 @@
         <v>83399</v>
       </c>
     </row>
-    <row r="1264" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1264" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1264" s="1">
         <v>469</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>83421</v>
       </c>
     </row>
-    <row r="1265" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1265" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1265" s="1">
         <v>531</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>83805</v>
       </c>
     </row>
-    <row r="1267" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1267" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1267" s="1">
         <v>722</v>
       </c>
@@ -28076,7 +28076,7 @@
         <v>84018</v>
       </c>
     </row>
-    <row r="1268" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1268" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1268" s="1">
         <v>551</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>84224</v>
       </c>
     </row>
-    <row r="1269" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1269" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1269" s="1">
         <v>489</v>
       </c>
@@ -28116,7 +28116,7 @@
         <v>84234</v>
       </c>
     </row>
-    <row r="1270" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1270" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1270" s="1">
         <v>690</v>
       </c>
@@ -28136,7 +28136,7 @@
         <v>84287</v>
       </c>
     </row>
-    <row r="1271" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1271" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1271" s="1">
         <v>429</v>
       </c>
@@ -28156,7 +28156,7 @@
         <v>84333</v>
       </c>
     </row>
-    <row r="1272" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1272" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1272" s="1">
         <v>730</v>
       </c>
@@ -28176,7 +28176,7 @@
         <v>84350</v>
       </c>
     </row>
-    <row r="1273" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1273" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1273" s="1">
         <v>654</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>84404</v>
       </c>
     </row>
-    <row r="1274" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1274" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1274" s="1">
         <v>546</v>
       </c>
@@ -28216,7 +28216,7 @@
         <v>84480</v>
       </c>
     </row>
-    <row r="1275" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1275" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1275" s="1">
         <v>422</v>
       </c>
@@ -28236,7 +28236,7 @@
         <v>84482</v>
       </c>
     </row>
-    <row r="1276" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1276" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1276" s="1">
         <v>608</v>
       </c>
@@ -28256,7 +28256,7 @@
         <v>84487</v>
       </c>
     </row>
-    <row r="1277" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1277" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1277" s="1">
         <v>572</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>84671</v>
       </c>
     </row>
-    <row r="1278" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1278" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1278" s="1">
         <v>533</v>
       </c>
@@ -28296,7 +28296,7 @@
         <v>84673</v>
       </c>
     </row>
-    <row r="1279" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1279" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1279" s="1">
         <v>430</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>84843</v>
       </c>
     </row>
-    <row r="1281" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1281" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1281" s="1">
         <v>181</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>85030</v>
       </c>
     </row>
-    <row r="1282" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1282" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1282" s="1">
         <v>498</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>85251</v>
       </c>
     </row>
-    <row r="1283" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1283" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1283" s="1">
         <v>168</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>85417</v>
       </c>
     </row>
-    <row r="1284" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1284" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1284" s="1">
         <v>71</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>85418</v>
       </c>
     </row>
-    <row r="1285" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1285" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1285" s="1">
         <v>418</v>
       </c>
@@ -28436,7 +28436,7 @@
         <v>85434</v>
       </c>
     </row>
-    <row r="1286" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1286" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1286" s="1">
         <v>719</v>
       </c>
@@ -28456,7 +28456,7 @@
         <v>85491</v>
       </c>
     </row>
-    <row r="1287" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1287" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1287" s="1">
         <v>743</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>85531</v>
       </c>
     </row>
-    <row r="1288" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1288" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1288" s="1">
         <v>507</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>85608</v>
       </c>
     </row>
-    <row r="1289" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1289" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1289" s="1">
         <v>510</v>
       </c>
@@ -28516,7 +28516,7 @@
         <v>85972</v>
       </c>
     </row>
-    <row r="1290" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1290" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1290" s="1">
         <v>456</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>86130</v>
       </c>
     </row>
-    <row r="1291" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1291" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1291" s="1">
         <v>603</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>86205</v>
       </c>
     </row>
-    <row r="1292" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1292" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1292" s="1">
         <v>354</v>
       </c>
@@ -28576,7 +28576,7 @@
         <v>86296</v>
       </c>
     </row>
-    <row r="1293" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1293" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1293" s="1">
         <v>624</v>
       </c>
@@ -28596,7 +28596,7 @@
         <v>86297</v>
       </c>
     </row>
-    <row r="1294" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1294" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1294" s="1">
         <v>511</v>
       </c>
@@ -28616,7 +28616,7 @@
         <v>86309</v>
       </c>
     </row>
-    <row r="1295" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1295" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1295" s="1">
         <v>477</v>
       </c>
@@ -28636,7 +28636,7 @@
         <v>86316</v>
       </c>
     </row>
-    <row r="1296" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1296" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1296" s="1">
         <v>431</v>
       </c>
@@ -28656,7 +28656,7 @@
         <v>86546</v>
       </c>
     </row>
-    <row r="1297" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1297" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1297" s="1">
         <v>543</v>
       </c>
@@ -28676,7 +28676,7 @@
         <v>86575</v>
       </c>
     </row>
-    <row r="1298" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1298" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1298" s="1">
         <v>579</v>
       </c>
@@ -28696,7 +28696,7 @@
         <v>86669</v>
       </c>
     </row>
-    <row r="1299" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1299" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1299" s="1">
         <v>535</v>
       </c>
@@ -28716,7 +28716,7 @@
         <v>86746</v>
       </c>
     </row>
-    <row r="1300" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1300" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1300" s="1">
         <v>227</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>86793</v>
       </c>
     </row>
-    <row r="1301" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1301" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1301" s="1">
         <v>640</v>
       </c>
@@ -28756,7 +28756,7 @@
         <v>86996</v>
       </c>
     </row>
-    <row r="1302" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1302" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1302" s="1">
         <v>513</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>87492</v>
       </c>
     </row>
-    <row r="1303" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1303" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1303" s="1">
         <v>371</v>
       </c>
@@ -28796,7 +28796,7 @@
         <v>87658</v>
       </c>
     </row>
-    <row r="1304" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1304" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1304" s="1">
         <v>663</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>87731</v>
       </c>
     </row>
-    <row r="1305" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1305" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1305" s="1">
         <v>505</v>
       </c>
@@ -28836,7 +28836,7 @@
         <v>87816</v>
       </c>
     </row>
-    <row r="1306" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1306" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1306" s="1">
         <v>723</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>87842</v>
       </c>
     </row>
-    <row r="1307" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1307" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1307" s="1">
         <v>512</v>
       </c>
@@ -28876,7 +28876,7 @@
         <v>88105</v>
       </c>
     </row>
-    <row r="1308" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1308" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1308" s="1">
         <v>651</v>
       </c>
@@ -28896,7 +28896,7 @@
         <v>88108</v>
       </c>
     </row>
-    <row r="1309" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1309" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1309" s="1">
         <v>101</v>
       </c>
@@ -28916,7 +28916,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1310" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1310" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1310" s="1">
         <v>129</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1311" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1311" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1311" s="1">
         <v>192</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1312" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1312" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1312" s="1">
         <v>245</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1313" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1313" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1313" s="1">
         <v>250</v>
       </c>
@@ -29016,7 +29016,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1315" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1315" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1315" s="1">
         <v>347</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1316" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1316" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1316" s="1">
         <v>383</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1317" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1317" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1317" s="1">
         <v>426</v>
       </c>
@@ -29076,7 +29076,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1318" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1318" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1318" s="1">
         <v>432</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1319" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1319" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1319" s="1">
         <v>435</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1320" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1320" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1320" s="1">
         <v>436</v>
       </c>
@@ -29136,7 +29136,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1321" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1321" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1321" s="1">
         <v>439</v>
       </c>
@@ -29156,7 +29156,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1322" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1322" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1322" s="1">
         <v>441</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1323" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1323" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1323" s="1">
         <v>442</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1324" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1324" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1324" s="1">
         <v>443</v>
       </c>
@@ -29216,7 +29216,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1325" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1325" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1325" s="1">
         <v>445</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1326" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1326" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1326" s="1">
         <v>446</v>
       </c>
@@ -29256,7 +29256,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1327" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1327" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1327" s="1">
         <v>448</v>
       </c>
@@ -29276,7 +29276,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1328" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1328" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1328" s="1">
         <v>449</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1329" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1329" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1329" s="1">
         <v>464</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1330" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1330" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1330" s="1">
         <v>478</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1331" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1331" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1331" s="1">
         <v>488</v>
       </c>
@@ -29356,7 +29356,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1332" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1332" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1332" s="1">
         <v>509</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1333" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1333" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1333" s="1">
         <v>514</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1334" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1334" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1334" s="1">
         <v>515</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1335" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1335" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1335" s="1">
         <v>517</v>
       </c>
@@ -29436,7 +29436,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1336" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1336" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1336" s="1">
         <v>518</v>
       </c>
@@ -29456,7 +29456,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1337" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1337" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1337" s="1">
         <v>521</v>
       </c>
@@ -29476,7 +29476,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1338" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1338" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1338" s="1">
         <v>578</v>
       </c>
@@ -29496,7 +29496,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1339" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1339" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1339" s="1">
         <v>580</v>
       </c>
@@ -29516,7 +29516,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1340" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1340" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1340" s="1">
         <v>581</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1341" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1341" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1341" s="1">
         <v>582</v>
       </c>
@@ -29556,7 +29556,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1342" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1342" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1342" s="1">
         <v>583</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1343" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1343" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1343" s="1">
         <v>584</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1344" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1344" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1344" s="1">
         <v>597</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1345" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1345" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1345" s="1">
         <v>604</v>
       </c>
@@ -29636,7 +29636,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1346" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1346" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1346" s="1">
         <v>607</v>
       </c>
@@ -29656,7 +29656,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1347" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1347" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1347" s="1">
         <v>609</v>
       </c>
@@ -29676,7 +29676,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1348" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1348" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1348" s="1">
         <v>612</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1349" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1349" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1349" s="1">
         <v>613</v>
       </c>
@@ -29716,7 +29716,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1350" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1350" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1350" s="1">
         <v>614</v>
       </c>
@@ -29736,7 +29736,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1351" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1351" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1351" s="1">
         <v>616</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1352" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1352" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1352" s="1">
         <v>619</v>
       </c>
@@ -29776,7 +29776,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1353" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1353" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1353" s="1">
         <v>621</v>
       </c>
@@ -29796,7 +29796,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1354" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1354" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1354" s="1">
         <v>622</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1355" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1355" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1355" s="1">
         <v>623</v>
       </c>
@@ -29836,7 +29836,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1356" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1356" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1356" s="1">
         <v>625</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1357" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1357" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1357" s="1">
         <v>634</v>
       </c>
@@ -29876,7 +29876,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1358" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1358" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1358" s="1">
         <v>644</v>
       </c>
@@ -29896,7 +29896,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1359" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1359" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1359" s="1">
         <v>648</v>
       </c>
@@ -29916,7 +29916,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1360" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1360" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1360" s="1">
         <v>649</v>
       </c>
@@ -29936,7 +29936,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1361" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1361" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1361" s="1">
         <v>653</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1362" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1362" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1362" s="1">
         <v>658</v>
       </c>
@@ -29976,7 +29976,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1363" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1363" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1363" s="1">
         <v>659</v>
       </c>
@@ -29996,7 +29996,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1364" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1364" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1364" s="1">
         <v>664</v>
       </c>
@@ -30016,7 +30016,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1365" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1365" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1365" s="1">
         <v>689</v>
       </c>
@@ -30036,7 +30036,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1366" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1366" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1366" s="1">
         <v>703</v>
       </c>
@@ -30056,7 +30056,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1367" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1367" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1367" s="1">
         <v>704</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1368" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1368" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1368" s="1">
         <v>705</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1369" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1369" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1369" s="1">
         <v>706</v>
       </c>
@@ -30116,7 +30116,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1370" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1370" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1370" s="1">
         <v>714</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1371" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1371" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1371" s="1">
         <v>718</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1372" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1372" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1372" s="1">
         <v>720</v>
       </c>
@@ -30176,7 +30176,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1373" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1373" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1373" s="1">
         <v>724</v>
       </c>
@@ -30196,7 +30196,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1374" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1374" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1374" s="1">
         <v>725</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1375" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1375" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1375" s="1">
         <v>726</v>
       </c>
@@ -30236,7 +30236,7 @@
         <v>88469</v>
       </c>
     </row>
-    <row r="1376" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1376" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A1376" s="1">
         <v>740</v>
       </c>
@@ -30261,83 +30261,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="理工"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="安徽中医药大学"/>
-        <filter val="北京中医药大学东方学院"/>
-        <filter val="滨州医学院"/>
-        <filter val="成都医学院"/>
-        <filter val="成都中医药大学"/>
-        <filter val="承德医学院"/>
-        <filter val="川北医学院"/>
-        <filter val="福建医科大学"/>
-        <filter val="福建中医药大学"/>
-        <filter val="甘肃医学院"/>
-        <filter val="赣南医学院"/>
-        <filter val="赣南医学院(职教本科合作实验班)"/>
-        <filter val="广东医科大学"/>
-        <filter val="广西医科大学"/>
-        <filter val="广西中医药大学"/>
-        <filter val="广西中医药大学赛恩斯新医药学院"/>
-        <filter val="贵州医科大学"/>
-        <filter val="贵州医科大学神奇民族医药学院"/>
-        <filter val="桂林医学院"/>
-        <filter val="哈尔滨医科大学"/>
-        <filter val="海南医学院"/>
-        <filter val="河北医科大学"/>
-        <filter val="河北中医学院"/>
-        <filter val="河南中医药大学"/>
-        <filter val="黑龙江中医药大学"/>
-        <filter val="湖北医药学院"/>
-        <filter val="湖北医药学院药护学院"/>
-        <filter val="湖北中医药大学"/>
-        <filter val="湖南医药学院"/>
-        <filter val="湖南中医药大学"/>
-        <filter val="湖南中医药大学湘杏学院"/>
-        <filter val="吉林医药学院"/>
-        <filter val="济宁医学院"/>
-        <filter val="江西中医药大学"/>
-        <filter val="江西中医药大学科技学院"/>
-        <filter val="锦州医科大学"/>
-        <filter val="昆明医科大学"/>
-        <filter val="昆明医科大学海源学院"/>
-        <filter val="辽宁何氏医学院"/>
-        <filter val="牡丹江医学院"/>
-        <filter val="南京医科大学康达学院"/>
-        <filter val="南京中医药大学翰林学院"/>
-        <filter val="内蒙古科技大学包头医学院"/>
-        <filter val="内蒙古医科大学"/>
-        <filter val="宁夏医科大学"/>
-        <filter val="齐鲁医药学院"/>
-        <filter val="齐齐哈尔医学院"/>
-        <filter val="厦门医学院"/>
-        <filter val="山东中医药大学"/>
-        <filter val="山西医科大学"/>
-        <filter val="山西中医药大学"/>
-        <filter val="陕西中医药大学"/>
-        <filter val="上海健康医学院"/>
-        <filter val="沈阳医学院"/>
-        <filter val="天津医科大学临床医学院"/>
-        <filter val="天津中医药大学"/>
-        <filter val="皖南医学院"/>
-        <filter val="潍坊医学院"/>
-        <filter val="温州医科大学仁济学院"/>
-        <filter val="西安医学院"/>
-        <filter val="西南医科大学"/>
-        <filter val="新乡医学院"/>
-        <filter val="新乡医学院三全学院"/>
-        <filter val="徐州医科大学"/>
-        <filter val="右江民族医学院"/>
-        <filter val="云南中医学院"/>
-        <filter val="长春中医药大学"/>
-        <filter val="长沙医学院"/>
-        <filter val="长治医学院"/>
-        <filter val="浙江中医药大学"/>
-        <filter val="浙江中医药大学滨江学院"/>
-        <filter val="重庆医科大学"/>
-        <filter val="遵义医学院"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:F1376">
